--- a/biology/Botanique/Allium_platyspathum/Allium_platyspathum.xlsx
+++ b/biology/Botanique/Allium_platyspathum/Allium_platyspathum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allium platyspathum est une espèce de plante bulbeuse vivace asiatique du genre Allium de la famille des Amaryllidacées. Il a été signalé au Xinjiang, en Afghanistan, au Kazakhstan, au Kirghizistan, en Mongolie, dans le Kraï de l'Altaï , au Tadjikistan, en Ouzbékistan, et au Pakistan. Il pousse dans des endroits humides à des altitudes de 1 900 à 3 700 m[3],[4],[5],[6].
-Il a comme variétés reconnues[2],[3] :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allium platyspathum est une espèce de plante bulbeuse vivace asiatique du genre Allium de la famille des Amaryllidacées. Il a été signalé au Xinjiang, en Afghanistan, au Kazakhstan, au Kirghizistan, en Mongolie, dans le Kraï de l'Altaï , au Tadjikistan, en Ouzbékistan, et au Pakistan. Il pousse dans des endroits humides à des altitudes de 1 900 à 3 700 m.
+Il a comme variétés reconnues, :
 Allium platyspathum subsp. amblyophyllum (Kar. &amp; Kir.) N.Friesen  hampe de 40–100 cm de long, fleurs roses ; feuilles de 10–20 mm de large - Xinjiang, Afghanistan, Kazakhstan, Kirghizistan, Mongolie, Kraï de l'Altaï 
 Allium platyspathum subsp. platyspathum hampe atteignant 25 cm de long ; fleurs lilas, feuilles de moins de 8 mm de large - Xinjiang, Afghanistan, Kazakhstan, Kirghizistan, Mongolie, Kraï de l'Altaï , Tadjikistan, Ouzbékistan, Pakistan
-et anciennement inclus[2]
+et anciennement inclus
 Allium platyspathum var. falcatum Regel,  maintenant appelé Allium carolinianum Redouté
 </t>
         </is>
@@ -516,9 +528,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allium platyspathum forme généralement un bulbe solitaire ou rarement apparié, cylindrique à ovoïde-cylindrique, de 1 à 2 cm de diamètre ; la tunique est grise noirâtre à noire, finement papyracée, se décomposant rapidement. Les feuilles sont largement linéaires, plus courtes à légèrement plus longues que la hampe, larges de 2 à 17 mm, plates, à sommet obtus ou progressivement aigu. La hampe florale  mesure jusqu'à 100 cm de haut. cylindrique, couverte de gaines foliaires seulement à la base ou sur un tiers ou la moitié de sa longueur L'ombelle est hémisphérique à globuleuse, densément fleurie. roses ou lilas[3],[7]. L'ovaire  est subglobuleux, à nectaires concaves à la base. La floraison a lieu de juin à août. Le nombre de chromosomes est 2n = 16[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allium platyspathum forme généralement un bulbe solitaire ou rarement apparié, cylindrique à ovoïde-cylindrique, de 1 à 2 cm de diamètre ; la tunique est grise noirâtre à noire, finement papyracée, se décomposant rapidement. Les feuilles sont largement linéaires, plus courtes à légèrement plus longues que la hampe, larges de 2 à 17 mm, plates, à sommet obtus ou progressivement aigu. La hampe florale  mesure jusqu'à 100 cm de haut. cylindrique, couverte de gaines foliaires seulement à la base ou sur un tiers ou la moitié de sa longueur L'ombelle est hémisphérique à globuleuse, densément fleurie. roses ou lilas,. L'ovaire  est subglobuleux, à nectaires concaves à la base. La floraison a lieu de juin à août. Le nombre de chromosomes est 2n = 16.
 Bulbe solitaire ou rarement apparié, cylindrique à ovoïde-cylindrique, de 1--2 cm de diamètre ; tunique gris noirâtre à noire, finement papyracée, se décomposant rapidement ; couches internes lilas grisâtre ou blanc rosé clair, membraneuses. Scape de 10--60(--100) cm, . Spathe à 2 valves, persistante ; bec très court. Ombelle  Pédicelles subégaux, égalant 2 × la longueur du périanthe, ébractéolés. Périanthe rose ou lilas rosé; segments lancéolés à linéaires-lancéolés, de 6--8 × 1,5--2 mm ; les intérieurs légèrement plus longs que les extérieurs. Filaments 1--1,5 × aussi longs que les segments du périanthe, connés à la base et adnés aux segments du périanthe.
 Lisières forestières, prairies subalpines ou alpines, pentes caillouteuses, bords de rivières; 1900--3 700 m. Xinjiang [Afghanistan, Kazakhstan, Kirghizistan, Mongolie, Russie, Tadjikistan, Ouzbékistan.
 </t>
